--- a/KatalonData/RADTestData/JointFilingSSNNoMatch.xlsx
+++ b/KatalonData/RADTestData/JointFilingSSNNoMatch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KatalonData\RADTestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29384F18-720B-4378-8DE8-F78D2DD34CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A6B5AE-3104-4B78-952C-5B5320A262D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31860" yWindow="1005" windowWidth="18075" windowHeight="13305" xr2:uid="{64AAF6A4-B582-41C3-B2B7-EAC922D4E6FB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{64AAF6A4-B582-41C3-B2B7-EAC922D4E6FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -489,5 +489,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/KatalonData/RADTestData/JointFilingSSNNoMatch.xlsx
+++ b/KatalonData/RADTestData/JointFilingSSNNoMatch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A6B5AE-3104-4B78-952C-5B5320A262D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8FC9A6-5710-48CA-8A7D-5B97D58C326C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{64AAF6A4-B582-41C3-B2B7-EAC922D4E6FB}"/>
+    <workbookView xWindow="3480" yWindow="2460" windowWidth="18810" windowHeight="14565" xr2:uid="{64AAF6A4-B582-41C3-B2B7-EAC922D4E6FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Result</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Extension Payments</t>
+  </si>
+  <si>
+    <t>DONOTRUN</t>
   </si>
 </sst>
 </file>
@@ -430,14 +433,14 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.85546875" style="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="19.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
@@ -480,7 +483,7 @@
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>

--- a/KatalonData/RADTestData/JointFilingSSNNoMatch.xlsx
+++ b/KatalonData/RADTestData/JointFilingSSNNoMatch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8FC9A6-5710-48CA-8A7D-5B97D58C326C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5D60D8-7375-424A-8572-95852AFF905D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="2460" windowWidth="18810" windowHeight="14565" xr2:uid="{64AAF6A4-B582-41C3-B2B7-EAC922D4E6FB}"/>
+    <workbookView xWindow="30270" yWindow="915" windowWidth="24525" windowHeight="14010" xr2:uid="{64AAF6A4-B582-41C3-B2B7-EAC922D4E6FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Result</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>Extension Payments</t>
-  </si>
-  <si>
-    <t>DONOTRUN</t>
   </si>
 </sst>
 </file>
@@ -483,7 +480,7 @@
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
